--- a/results.xlsx
+++ b/results.xlsx
@@ -1,3 +1,731 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22368" windowHeight="10740"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/module-configs/personnel/villager-schema</t>
+  </si>
+  <si>
+    <t>/module-configs/personnel/villager</t>
+  </si>
+  <si>
+    <t>/module-configs/personnel/point-card</t>
+  </si>
+  <si>
+    <t>/admin/villagers/966786</t>
+  </si>
+  <si>
+    <t>/admin/household-groups</t>
+  </si>
+  <si>
+    <t>/admin/households/368549</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -278,6 +1006,82 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="16">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="20">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="21">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>988</v>
       </c>
     </row>
     <row r="23">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="25">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="26">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="27">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38">
@@ -990,6 +990,1566 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>/client/mall/click</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>/client/mall</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>/client/banners/pointMall</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>/client/mall/my-favorites</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>/client/mall/orders/my-coupons</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>/client/banners/point</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>/client/manager/city-manager</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>/client/personnel/account/detail/id</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>/client/personnel/account/records/id</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>/client/low-carbon/account</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>/client/ranklist/click</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>/client/rank-list/point</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>/client/rank-list/pioneer</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>/client/banners/carbon</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>/client/article/new/tourist-read/id</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>/person-register/tourist-register</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>/person-register/register/decrypt-phone</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>/person-register/binding</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>/client/invitation</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>/person-register/tourist-register</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>/client/party-building/activities</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>/client/party-building/honor</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>/client/honors/new</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>/common/regions</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>/module-configs/region</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>/client/statistic/index/basic-data</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>/admin/activity/new</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>/client/statistic/index/important-data</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>/client/invitation</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>/client/invitation/invitee/list</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>/client/invitation/list</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>/admin/statistic/all-activities</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>/client/statistic/town/basic-data</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>/client/credit/illegal</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/client/credit</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>/client/question/page/done</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>/client/rule/describe/id</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>/common/sms/challenge/id</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>/person-register</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>/client/point/new/tourist-point</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>/client/honor-categories</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>/client/topic-categories</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>/admin/statistic/active-user</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>/admin/statistic/activation-user</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>/admin/statistic/checkPending-data</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>/admin/statistic/basic</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>/admin/statistic/invitation</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>/admin/statistic/point</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>/admin/statistic/basic/new</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>/client/activities/id/like</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>/client/donation/new/total-point</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>/client/donation/rank-info</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>/client/donation/records</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>/client/donation/like</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>/client/honors</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>/module-configs/activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>/module-configs/personnel/resident-schema</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>/admin/activities/id</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>/admin/tag/list</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>/admin/activity-categories</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>/admin/activities/id/participants</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>/admin/activities/id/registrants</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>/client/credit/behavior</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>/client/activities/id/certification-requests</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>/client/credit/illegal/pass-illegal</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>/client/statistic/city/activitys</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>/client/statistic/city/basic-data</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>/client/statistic/city/active-user-count</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>/client/statistic/city/point</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>/client/task</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>/client/party-building/point-record</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>/client/party-building/ranklist</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>/client/low-carbon/ranklist</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>/client/question/page</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>/client/personnel/new/search</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>/admin/personnel/id/point-account/records</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>/client/activities/id/registrants</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>/client/person-register</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>/client/activities/participated-records</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>/client/topics/new/audit/config</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>/client/party-building/articles/party-member</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>/client/party-building/article-categories</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>/client/wishes</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>/client/activities/id/registrants</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>/client/wishes/record</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>/client/topics/new</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>/client/donation</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>/client/party-building/point-record/list</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>/client/party-building/articles/information-publicity</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>/client/low-carbon/record</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>/client/activities/id/certification-requests</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>/person-register/search-household</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>/client/personnel</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>/client/activities/id/agents</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>/client/person-register/id</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>/client/person-register/id</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>/admin/index-config/id</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>/module-configs/personnel/resident</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>/admin/residents</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>/module-configs/personnel/resident-import-template</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>/client/point/new/tourist-point-record</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>/client/articles/NaN</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>/client/access-control/binding</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>/client/mall/id</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>19503</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>23448</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>15841</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>19013</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>113</v>
+        <v>19237</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>11231</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>452</v>
+        <v>17493</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>465</v>
+        <v>18347</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>453</v>
+        <v>17591</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>79</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="14">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>107</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="15">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1631</v>
+        <v>49839</v>
       </c>
     </row>
     <row r="16">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>650</v>
+        <v>14237</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1491</v>
+        <v>41769</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>792</v>
+        <v>16544</v>
       </c>
     </row>
     <row r="19">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1459</v>
+        <v>32052</v>
       </c>
     </row>
     <row r="20">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1428</v>
+        <v>24969</v>
       </c>
     </row>
     <row r="21">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>823</v>
+        <v>21089</v>
       </c>
     </row>
     <row r="22">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>988</v>
+        <v>22336</v>
       </c>
     </row>
     <row r="23">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>825</v>
+        <v>20457</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1112</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="25">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1469</v>
+        <v>29498</v>
       </c>
     </row>
     <row r="26">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1480</v>
+        <v>29712</v>
       </c>
     </row>
     <row r="27">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>362</v>
+        <v>11173</v>
       </c>
     </row>
     <row r="28">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>462</v>
+        <v>11577</v>
       </c>
     </row>
     <row r="29">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>785</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="30">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>784</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="31">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>781</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="32">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>441</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="33">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>771</v>
+        <v>22014</v>
       </c>
     </row>
     <row r="34">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>770</v>
+        <v>21903</v>
       </c>
     </row>
     <row r="35">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>799</v>
+        <v>21603</v>
       </c>
     </row>
     <row r="36">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>805</v>
+        <v>25337</v>
       </c>
     </row>
     <row r="37">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>769</v>
+        <v>21898</v>
       </c>
     </row>
     <row r="38">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>782</v>
+        <v>24884</v>
       </c>
     </row>
     <row r="39">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>50</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>170</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>59</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="47">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>71</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="48">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>116</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="49">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>108</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>144</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>91</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>157</v>
+        <v>10717</v>
       </c>
     </row>
     <row r="53">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>168</v>
+        <v>15712</v>
       </c>
     </row>
     <row r="55">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>91</v>
+        <v>9583</v>
       </c>
     </row>
     <row r="56">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>61</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="57">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="58">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>70</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>39</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="62">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>53</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="63">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>46</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="64">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>122</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="65">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>128</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="66">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>122</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="67">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="68">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>132</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="69">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>55</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="70">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>916</v>
       </c>
     </row>
     <row r="71">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>84</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="73">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>64</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="74">
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="78">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>13</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="79">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>49</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>834</v>
       </c>
     </row>
     <row r="82">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>834</v>
       </c>
     </row>
     <row r="85">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>860</v>
       </c>
     </row>
     <row r="87">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>834</v>
       </c>
     </row>
     <row r="88">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="96">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>25</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>55</v>
+        <v>846</v>
       </c>
     </row>
     <row r="103">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>110</v>
+        <v>861</v>
       </c>
     </row>
     <row r="109">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>163</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="114">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>552</v>
       </c>
     </row>
     <row r="116">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>47</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="117">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>25</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2325,37 +2325,37 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>/client/low-carbon/record</t>
+          <t>/admin/residents/id</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>/client/activities/id/certification-requests</t>
+          <t>/admin/residents/id</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="130">
@@ -2366,71 +2366,71 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>/person-register/search-household</t>
+          <t>/client/person-register/id</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>11</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>/client/personnel</t>
+          <t>/client/person-register/id</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>13</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>/client/activities/id/agents</t>
+          <t>/admin/villagers/id</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>896</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>/client/person-register/id</t>
+          <t>/client/access-control/binding</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>21</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>/client/person-register/id</t>
+          <t>/admin/residents</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>10</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135">
@@ -2441,11 +2441,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>/admin/index-config/id</t>
+          <t>/person-register/search-household</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>694</v>
       </c>
     </row>
     <row r="136">
@@ -2456,11 +2456,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>/module-configs/personnel/resident</t>
+          <t>/client/party-building/activities/id</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -2471,11 +2471,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>/admin/residents</t>
+          <t>/client/party-building/activities/id/registrants</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -2486,11 +2486,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>/module-configs/personnel/resident-import-template</t>
+          <t>/client/party-building/activities/id/participants</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -2501,41 +2501,41 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>/client/point/new/tourist-point-record</t>
+          <t>/client/banner/new/click</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>/client/articles/NaN</t>
+          <t>/client/activities/id/certification-requests</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>/client/access-control/binding</t>
+          <t>/admin/villagers</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142">
@@ -2546,10 +2546,2230 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>/admin/access-control/roles</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>/admin/access-control/managers</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>/client/point/new/tourist-point-record</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>/client/low-carbon/record</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>/admin/topics/new</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>/admin/topics/new/id</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>/admin/topics/id/adopt</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>/client/personnel/my/avatar</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>/client/topics/new</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>/client/articles/NaN</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>/client/honors/id</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>/admin/statistic/weekly-data-report</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>/admin/party-building/activities</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>/module-configs/personnel/resident</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>/admin/residents</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>/client/personnel/transaction</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>/module-configs/honor</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>/admin/honors</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>/admin/topics/report/id</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>/client/personnel/my</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>/client/honors/new/low-carbon</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>/client/honors/new/low-carbon/first</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>/client/honors/new/desc</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>/client/regions/new/list/grade</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>/client/personnel/my/phone-number</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>/client/personnel/new/export/point-card</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>/admin/statistic/monthly/active-user</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>/admin/villagers/import/records</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>/admin/villagers/import/record-detail</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>/admin/households</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>/admin/activities/id</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>/admin/activities</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>/admin/activities</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>/module-configs/party-building/article/partyMember</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>/client/party-building/articles/party-member/id</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>/admin/banners</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>/client/party-building/articles/party-member/id/reward</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
           <t>/client/mall/id</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C179" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>/admin/person-register</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>/admin/person-register/id</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>/admin/person-register/id</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>/api/admin/activity-template</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>/admin/invitation/list/</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>/client/honors</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>/client/mall/orders</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>/admin/access-control/people/id</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>/admin/access-control/managers</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>/api/admin/activity-template/id</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>/admin/personnel/new/id</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>/admin/invitation/id</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>/admin/personnel/manipulation-records</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>/admin/article-categories</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>/admin/articles</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>/admin/articles/id</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>/admin/villagers/id/household-head</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>/admin/personnel/new</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>/admin/villagers/import</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>/admin/activities/person-participated-records</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>/admin/activities/id/pin</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>/admin/question/page</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>/admin/question/category/list</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>/admin/question/category</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>/admin/question/category</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>/client/merchants/region-info</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>/client/merchants/account</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>/client/merchants/id/point-account/records</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>/client/mall/donation/my-coupons</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>/module-configs/notices</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>/admin/notices</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>/admin/activity-applications</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>/client/topics/new/id</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>/admin/villagers/import/record-detail</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>/admin/statistic/weekly-data-report/export</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>/admin/honors/low-carbon</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>/admin/honor-categories</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>/admin/low-carbon/list</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/activitys</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/activation-user</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/active-user</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/active-user-count</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/basic-data</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/activate-user-rate</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>/supervisor/projects/list</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>/supervisor/projects/module-config</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>/supervisor/statistic/point</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>/module-configs/personnel/resident-import-template</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>/admin/index-config/id</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>/client/personnel/NaN</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>/client/personnel</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>/client/activities/id/agents</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>/admin/mall</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>/admin/mall/applications</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>/admin/articles</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>/admin/residents/import/records</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>/admin/residents/import</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>/admin/residents/import/record-detail</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>/client/merchants/collection</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>/admin/topic-categories</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>/module-configs/personnel/villager-import-template</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>/admin/access-control/people/idX</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>/module-configs/merchants</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>/admin/merchants</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>/admin/activities/id/cycle</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>/admin/activities/id</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>/admin/activity-applications/id</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>/admin/activity-applications/id/reviewing</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>/admin/personnel/new/change-person/record</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>/admin/managers/export</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>/admin/access-control/people/</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>/admin/access-control/managers/id</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>/client/party-building/activities/participated-records</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>/admin/personnel/new/import/change-person</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>/admin/access-control/managers/id/activation</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>/admin/access-control/managers/id/activation</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>/admin/personnel/new/export/fail-record</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>/admin/invitation/point-rules/id</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>/admin/operation-management</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>/admin/article-point-rules/id</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>/admin/topic-point-rules</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>/admin/wish-point-rules/id</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>/admin/banners/banner-point-rules</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>/admin/question/point/rule/region/id</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>/admin/wishes</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>/admin/activity-applications/undefined</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>/common/modules</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>/admin/personnel/id/point-account</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>/admin/credit/illegal</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>/admin/credit/illegal-category/id</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>/admin/notices</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>/module-configs/party-building/article/information</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>/admin/party-building/articles/information-publicity</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>/admin/party-building/article-categories</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>/admin/banners</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>/admin/banners/id</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>/admin/banners/id</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>/admin/honors/id</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>/admin/personnel/id/honors</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>/admin/honors/id/reviewing</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>/admin/party-building/union</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>/admin/party-building/articles/party-member</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>/admin/party-building/activity-categories</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>/module-configs/party-building/activity</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>/admin/access-control/people/%E6%9E%97%E7%A5%96%E5%B9%B3</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>/admin/villagers/id</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>/admin/question/id</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>/admin/question/category/id</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>/common/sms/challenge/undefined</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>/supervisor/projects/basic</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>/module-configs/operation-management</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
         <v>1</v>
       </c>
     </row>
